--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt11</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt11</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1470843333333333</v>
+        <v>13.22273466666667</v>
       </c>
       <c r="H2">
-        <v>0.441253</v>
+        <v>39.668204</v>
       </c>
       <c r="I2">
-        <v>0.01080519019772543</v>
+        <v>0.9639959755780841</v>
       </c>
       <c r="J2">
-        <v>0.01080519019772543</v>
+        <v>0.9639959755780841</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="N2">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="O2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="P2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="Q2">
-        <v>0.3763625789605555</v>
+        <v>40.77331608765777</v>
       </c>
       <c r="R2">
-        <v>3.387263210645</v>
+        <v>366.9598447889199</v>
       </c>
       <c r="S2">
-        <v>0.002330386461238305</v>
+        <v>0.2190689880911346</v>
       </c>
       <c r="T2">
-        <v>0.002330386461238306</v>
+        <v>0.2190689880911346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1470843333333333</v>
+        <v>13.22273466666667</v>
       </c>
       <c r="H3">
-        <v>0.441253</v>
+        <v>39.668204</v>
       </c>
       <c r="I3">
-        <v>0.01080519019772543</v>
+        <v>0.9639959755780841</v>
       </c>
       <c r="J3">
-        <v>0.01080519019772543</v>
+        <v>0.9639959755780841</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N3">
         <v>19.361954</v>
       </c>
       <c r="O3">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="P3">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="Q3">
-        <v>0.949280032040222</v>
+        <v>85.33932679006844</v>
       </c>
       <c r="R3">
-        <v>8.543520288361998</v>
+        <v>768.0539411106159</v>
       </c>
       <c r="S3">
-        <v>0.005877814262778354</v>
+        <v>0.4585155625823149</v>
       </c>
       <c r="T3">
-        <v>0.005877814262778355</v>
+        <v>0.4585155625823149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1470843333333333</v>
+        <v>13.22273466666667</v>
       </c>
       <c r="H4">
-        <v>0.441253</v>
+        <v>39.668204</v>
       </c>
       <c r="I4">
-        <v>0.01080519019772543</v>
+        <v>0.9639959755780841</v>
       </c>
       <c r="J4">
-        <v>0.01080519019772543</v>
+        <v>0.9639959755780841</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="N4">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="O4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="P4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="Q4">
-        <v>0.4194195564194444</v>
+        <v>53.30715068576934</v>
       </c>
       <c r="R4">
-        <v>3.774776007774999</v>
+        <v>479.764356171924</v>
       </c>
       <c r="S4">
-        <v>0.002596989473708771</v>
+        <v>0.2864114249046346</v>
       </c>
       <c r="T4">
-        <v>0.002596989473708771</v>
+        <v>0.2864114249046346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.22273466666667</v>
+        <v>0.4938523333333333</v>
       </c>
       <c r="H5">
-        <v>39.668204</v>
+        <v>1.481557</v>
       </c>
       <c r="I5">
-        <v>0.9713758071269154</v>
+        <v>0.03600402442191584</v>
       </c>
       <c r="J5">
-        <v>0.9713758071269154</v>
+        <v>0.03600402442191584</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="N5">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="O5">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="P5">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="Q5">
-        <v>33.83461995765111</v>
+        <v>1.522831531845555</v>
       </c>
       <c r="R5">
-        <v>304.51157961886</v>
+        <v>13.70548378661</v>
       </c>
       <c r="S5">
-        <v>0.2094994153994176</v>
+        <v>0.008181948262375003</v>
       </c>
       <c r="T5">
-        <v>0.2094994153994176</v>
+        <v>0.008181948262375003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.22273466666667</v>
+        <v>0.4938523333333333</v>
       </c>
       <c r="H6">
-        <v>39.668204</v>
+        <v>1.481557</v>
       </c>
       <c r="I6">
-        <v>0.9713758071269154</v>
+        <v>0.03600402442191584</v>
       </c>
       <c r="J6">
-        <v>0.9713758071269154</v>
+        <v>0.03600402442191584</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N6">
         <v>19.361954</v>
       </c>
       <c r="O6">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="P6">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="Q6">
-        <v>85.33932679006844</v>
+        <v>3.187315386930889</v>
       </c>
       <c r="R6">
-        <v>768.0539411106159</v>
+        <v>28.685838482378</v>
       </c>
       <c r="S6">
-        <v>0.5284096317758777</v>
+        <v>0.01712497347630779</v>
       </c>
       <c r="T6">
-        <v>0.5284096317758779</v>
+        <v>0.01712497347630779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.22273466666667</v>
+        <v>0.4938523333333333</v>
       </c>
       <c r="H7">
-        <v>39.668204</v>
+        <v>1.481557</v>
       </c>
       <c r="I7">
-        <v>0.9713758071269154</v>
+        <v>0.03600402442191584</v>
       </c>
       <c r="J7">
-        <v>0.9713758071269154</v>
+        <v>0.03600402442191584</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="N7">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="O7">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="P7">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="Q7">
-        <v>37.70539922818889</v>
+        <v>1.990954323229667</v>
       </c>
       <c r="R7">
-        <v>339.3485930537</v>
+        <v>17.918588909067</v>
       </c>
       <c r="S7">
-        <v>0.2334667599516199</v>
+        <v>0.01069710268323304</v>
       </c>
       <c r="T7">
-        <v>0.23346675995162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.242559</v>
-      </c>
-      <c r="H8">
-        <v>0.7276769999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.01781900267535914</v>
-      </c>
-      <c r="J8">
-        <v>0.01781900267535914</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>2.558821666666667</v>
-      </c>
-      <c r="N8">
-        <v>7.676465</v>
-      </c>
-      <c r="O8">
-        <v>0.2156728774407755</v>
-      </c>
-      <c r="P8">
-        <v>0.2156728774407755</v>
-      </c>
-      <c r="Q8">
-        <v>0.620665224645</v>
-      </c>
-      <c r="R8">
-        <v>5.585987021805</v>
-      </c>
-      <c r="S8">
-        <v>0.003843075580119583</v>
-      </c>
-      <c r="T8">
-        <v>0.003843075580119583</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.242559</v>
-      </c>
-      <c r="H9">
-        <v>0.7276769999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.01781900267535914</v>
-      </c>
-      <c r="J9">
-        <v>0.01781900267535914</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.453984666666666</v>
-      </c>
-      <c r="N9">
-        <v>19.361954</v>
-      </c>
-      <c r="O9">
-        <v>0.5439806384912758</v>
-      </c>
-      <c r="P9">
-        <v>0.5439806384912759</v>
-      </c>
-      <c r="Q9">
-        <v>1.565472066762</v>
-      </c>
-      <c r="R9">
-        <v>14.089248600858</v>
-      </c>
-      <c r="S9">
-        <v>0.009693192452619619</v>
-      </c>
-      <c r="T9">
-        <v>0.00969319245261962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.242559</v>
-      </c>
-      <c r="H10">
-        <v>0.7276769999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.01781900267535914</v>
-      </c>
-      <c r="J10">
-        <v>0.01781900267535914</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.851558333333333</v>
-      </c>
-      <c r="N10">
-        <v>8.554675</v>
-      </c>
-      <c r="O10">
-        <v>0.2403464840679487</v>
-      </c>
-      <c r="P10">
-        <v>0.2403464840679487</v>
-      </c>
-      <c r="Q10">
-        <v>0.6916711377749999</v>
-      </c>
-      <c r="R10">
-        <v>6.225040239974999</v>
-      </c>
-      <c r="S10">
-        <v>0.004282734642619941</v>
-      </c>
-      <c r="T10">
-        <v>0.004282734642619942</v>
+        <v>0.01069710268323304</v>
       </c>
     </row>
   </sheetData>
